--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Desktop\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F54B8A-7854-44B0-B213-DBBC85E88ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831A3B36-F3A5-4FE6-8657-2429DF286D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="1635" windowWidth="16125" windowHeight="11730" activeTab="1" xr2:uid="{13CC2BB7-FF0A-453F-B235-4CDB8786A22A}"/>
+    <workbookView xWindow="4005" yWindow="1635" windowWidth="20460" windowHeight="11730" activeTab="1" xr2:uid="{13CC2BB7-FF0A-453F-B235-4CDB8786A22A}"/>
   </bookViews>
   <sheets>
     <sheet name="quiz" sheetId="1" r:id="rId1"/>
-    <sheet name="Codici" sheetId="3" r:id="rId2"/>
-    <sheet name="Punteggi" sheetId="2" r:id="rId3"/>
+    <sheet name="Discipline" sheetId="4" r:id="rId2"/>
+    <sheet name="Codici" sheetId="3" r:id="rId3"/>
+    <sheet name="Punteggi" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="1105">
   <si>
     <t>B</t>
   </si>
@@ -3336,12 +3337,45 @@
   <si>
     <t>Studente01</t>
   </si>
+  <si>
+    <t>Codice</t>
+  </si>
+  <si>
+    <t>Disciplina</t>
+  </si>
+  <si>
+    <t>201- 300: Cod. dell’A.D. e TIC nella P.A</t>
+  </si>
+  <si>
+    <t>301- 400: Compiti dell’Assist.alla Tutela e vigilanza</t>
+  </si>
+  <si>
+    <t>1 - 100:    El. di Diritto Amm, e Reati contro la P.A</t>
+  </si>
+  <si>
+    <t>401- 500: Conoscenze Lingua Inglese liv. A2</t>
+  </si>
+  <si>
+    <t>501- 600: TIC nella P.A.</t>
+  </si>
+  <si>
+    <t>601 – 700: Legisl. Salute e Sic.sul Lavoro</t>
+  </si>
+  <si>
+    <t>701-800 Capacità logico-deduttive e Cult gen</t>
+  </si>
+  <si>
+    <t>801 - 900: Struttura del MiC ed El. di Diritto U.E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">901- 1000: Noz. di Archeolog. museologia </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -3540,6 +3574,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEE0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -3885,7 +3925,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3911,6 +3951,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4268,7 +4309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DBF442-58A7-4E46-BF90-D35373146E61}">
   <dimension ref="A1:XFA612"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
@@ -18574,10 +18615,144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305D12E3-FCAE-45F4-8BF7-9D392B9B50A7}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E95EFA-36A5-481C-A505-5BCBDF1E7A6E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -18596,7 +18771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE11FBDA-093A-4C40-A214-F587428AEC81}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Desktop\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831A3B36-F3A5-4FE6-8657-2429DF286D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B09A9-F05A-4A9D-92AC-27903F3BEDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="1635" windowWidth="20460" windowHeight="11730" activeTab="1" xr2:uid="{13CC2BB7-FF0A-453F-B235-4CDB8786A22A}"/>
+    <workbookView xWindow="8340" yWindow="2955" windowWidth="20460" windowHeight="11730" activeTab="2" xr2:uid="{13CC2BB7-FF0A-453F-B235-4CDB8786A22A}"/>
   </bookViews>
   <sheets>
     <sheet name="quiz" sheetId="1" r:id="rId1"/>
     <sheet name="Discipline" sheetId="4" r:id="rId2"/>
-    <sheet name="Codici" sheetId="3" r:id="rId3"/>
-    <sheet name="Punteggi" sheetId="2" r:id="rId4"/>
+    <sheet name="Dispensecod" sheetId="5" r:id="rId3"/>
+    <sheet name="Codici" sheetId="3" r:id="rId4"/>
+    <sheet name="Punteggi" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1106">
   <si>
     <t>B</t>
   </si>
@@ -3369,6 +3370,9 @@
   </si>
   <si>
     <t xml:space="preserve">901- 1000: Noz. di Archeolog. museologia </t>
+  </si>
+  <si>
+    <t>Studio1</t>
   </si>
 </sst>
 </file>
@@ -18618,7 +18622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305D12E3-FCAE-45F4-8BF7-9D392B9B50A7}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -18749,6 +18753,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D159D33-A89B-49CB-9D0B-215C537A0F61}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E95EFA-36A5-481C-A505-5BCBDF1E7A6E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18771,7 +18795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE11FBDA-093A-4C40-A214-F587428AEC81}">
   <dimension ref="A1:C2"/>
   <sheetViews>
